--- a/xlsx/廖上+随身听厂家- 报价表.xlsx
+++ b/xlsx/廖上+随身听厂家- 报价表.xlsx
@@ -2,13 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="23880" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="代理价格表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -4217,20 +4216,4 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>